--- a/接口文档/商品api/品牌接口_app.xlsx
+++ b/接口文档/商品api/品牌接口_app.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="9360" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <t>接口地址：</t>
   </si>
   <si>
-    <t>http://192.168.1.131/api/catalog/brand</t>
+    <t>http://192.168.1.131/api/catalog/brand/nologin</t>
   </si>
   <si>
     <t>请求方式：</t>
@@ -940,8 +940,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -1005,11 +1005,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1021,7 +1108,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,24 +1116,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1058,76 +1139,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1139,21 +1154,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10.5"/>
       <color rgb="FF92278F"/>
       <name val="Monaco"/>
@@ -1189,19 +1189,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,157 +1363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,6 +1497,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1508,6 +1532,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1527,50 +1575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1585,15 +1594,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1602,10 +1602,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1614,16 +1614,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1633,120 +1633,120 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2465,8 +2465,8 @@
   <sheetPr/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2784,7 +2784,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1" display="            &quot;pic&quot;:&quot;http://11211&quot;," tooltip="http://0.0.43.203/"/>
-    <hyperlink ref="B2" r:id="rId2" display="http://192.168.1.131/api/catalog/brand" tooltip="http://192.168.1.131/api/catalog/brand"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://192.168.1.131/api/catalog/brand/nologin" tooltip="http://192.168.1.131/api/catalog/brand/nologin"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
